--- a/data_year/zb/就业人员和工资/按行业分城镇私营企业和个体就业人员.xlsx
+++ b/data_year/zb/就业人员和工资/按行业分城镇私营企业和个体就业人员.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,496 +478,310 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>212.355</v>
+        <v>322.9407</v>
       </c>
       <c r="C2" t="n">
-        <v>434.9982</v>
+        <v>713.2529</v>
       </c>
       <c r="D2" t="n">
-        <v>1156.3679</v>
+        <v>2151.3934</v>
       </c>
       <c r="E2" t="n">
-        <v>5514.9536</v>
+        <v>10538.4063</v>
       </c>
       <c r="F2" t="n">
-        <v>374.9677</v>
+        <v>685.0054</v>
       </c>
       <c r="G2" t="n">
-        <v>216.5012</v>
+        <v>494.7293</v>
       </c>
       <c r="H2" t="n">
-        <v>2257.7297</v>
+        <v>4280.6402</v>
       </c>
       <c r="I2" t="n">
-        <v>231.6016</v>
+        <v>646.4407</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>226.5225</v>
+        <v>348.7226</v>
       </c>
       <c r="C3" t="n">
-        <v>465.6217</v>
+        <v>788.7041</v>
       </c>
       <c r="D3" t="n">
-        <v>1329.6348</v>
+        <v>2291.3532</v>
       </c>
       <c r="E3" t="n">
-        <v>6236.1445</v>
+        <v>12138.7783</v>
       </c>
       <c r="F3" t="n">
-        <v>427.8449</v>
+        <v>751.6623</v>
       </c>
       <c r="G3" t="n">
-        <v>242.6544</v>
+        <v>563.3043</v>
       </c>
       <c r="H3" t="n">
-        <v>2534.7968</v>
+        <v>5175.2178</v>
       </c>
       <c r="I3" t="n">
-        <v>302.6114</v>
+        <v>798.7052</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>254.07932</v>
+        <v>573.9286</v>
       </c>
       <c r="C4" t="n">
-        <v>495.85931</v>
+        <v>838.2062</v>
       </c>
       <c r="D4" t="n">
-        <v>1557.7014</v>
+        <v>2357.8619</v>
       </c>
       <c r="E4" t="n">
-        <v>6966.76647</v>
+        <v>13200.1042</v>
       </c>
       <c r="F4" t="n">
-        <v>443.29434</v>
+        <v>807.1014</v>
       </c>
       <c r="G4" t="n">
-        <v>273.91332</v>
+        <v>599.8086</v>
       </c>
       <c r="H4" t="n">
-        <v>2841.14627</v>
+        <v>5407.2092</v>
       </c>
       <c r="I4" t="n">
-        <v>368.91041</v>
+        <v>923.1723</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>282.9158</v>
+        <v>385.0585</v>
       </c>
       <c r="C5" t="n">
-        <v>541.769</v>
+        <v>971.874</v>
       </c>
       <c r="D5" t="n">
-        <v>1752.4152</v>
+        <v>2484.1863</v>
       </c>
       <c r="E5" t="n">
-        <v>7890.5731</v>
+        <v>14384.5872</v>
       </c>
       <c r="F5" t="n">
-        <v>484.0121</v>
+        <v>874.4201</v>
       </c>
       <c r="G5" t="n">
-        <v>321.1315</v>
+        <v>669.1513</v>
       </c>
       <c r="H5" t="n">
-        <v>3187.9992</v>
+        <v>6134.461</v>
       </c>
       <c r="I5" t="n">
-        <v>433.2756</v>
+        <v>1004.593</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>295.9512</v>
+        <v>412.4483</v>
       </c>
       <c r="C6" t="n">
-        <v>595.6297</v>
+        <v>1179.505</v>
       </c>
       <c r="D6" t="n">
-        <v>1901.0128</v>
+        <v>2717.4762</v>
       </c>
       <c r="E6" t="n">
-        <v>8733.1361</v>
+        <v>16866.6624</v>
       </c>
       <c r="F6" t="n">
-        <v>532.7596</v>
+        <v>1026.3552</v>
       </c>
       <c r="G6" t="n">
-        <v>383.641</v>
+        <v>792.7899</v>
       </c>
       <c r="H6" t="n">
-        <v>3540.3903</v>
+        <v>7198.4769</v>
       </c>
       <c r="I6" t="n">
-        <v>494.7173</v>
+        <v>1271.2766</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>322.5813</v>
+        <v>431.8115</v>
       </c>
       <c r="C7" t="n">
-        <v>670.7258</v>
+        <v>1409.1955</v>
       </c>
       <c r="D7" t="n">
-        <v>1984.495</v>
+        <v>2770.282</v>
       </c>
       <c r="E7" t="n">
-        <v>9788.874400000001</v>
+        <v>18979.5614</v>
       </c>
       <c r="F7" t="n">
-        <v>606.4117</v>
+        <v>1151.5667</v>
       </c>
       <c r="G7" t="n">
-        <v>429.1734</v>
+        <v>913.008</v>
       </c>
       <c r="H7" t="n">
-        <v>4082.0387</v>
+        <v>8032.3075</v>
       </c>
       <c r="I7" t="n">
-        <v>593.4444</v>
+        <v>1677.9552</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>322.9407</v>
+        <v>464.1561</v>
       </c>
       <c r="C8" t="n">
-        <v>713.2529</v>
+        <v>1673.4495</v>
       </c>
       <c r="D8" t="n">
-        <v>2151.3934</v>
+        <v>2814.6788</v>
       </c>
       <c r="E8" t="n">
-        <v>10538.4063</v>
+        <v>20710.3965</v>
       </c>
       <c r="F8" t="n">
-        <v>685.0054</v>
+        <v>1306.0214</v>
       </c>
       <c r="G8" t="n">
-        <v>494.7293</v>
+        <v>992.103</v>
       </c>
       <c r="H8" t="n">
-        <v>4280.6402</v>
+        <v>8725.841899999999</v>
       </c>
       <c r="I8" t="n">
-        <v>646.4407</v>
+        <v>1815.6599</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>348.7226</v>
+        <v>512.0792</v>
       </c>
       <c r="C9" t="n">
-        <v>788.7041</v>
+        <v>1955.7723</v>
       </c>
       <c r="D9" t="n">
-        <v>2291.3532</v>
+        <v>2937.076</v>
       </c>
       <c r="E9" t="n">
-        <v>12138.7783</v>
+        <v>22674.7287</v>
       </c>
       <c r="F9" t="n">
-        <v>751.6623</v>
+        <v>1491.5506</v>
       </c>
       <c r="G9" t="n">
-        <v>563.3043</v>
+        <v>1046.1536</v>
       </c>
       <c r="H9" t="n">
-        <v>5175.2178</v>
+        <v>9355.066199999999</v>
       </c>
       <c r="I9" t="n">
-        <v>798.7052</v>
+        <v>2095.3146</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>573.9286</v>
+        <v>592.2951</v>
       </c>
       <c r="C10" t="n">
-        <v>838.2062</v>
+        <v>2151.4613</v>
       </c>
       <c r="D10" t="n">
-        <v>2357.8619</v>
+        <v>3007.8934</v>
       </c>
       <c r="E10" t="n">
-        <v>13200.1042</v>
+        <v>24391.8705</v>
       </c>
       <c r="F10" t="n">
-        <v>807.1014</v>
+        <v>1563.6177</v>
       </c>
       <c r="G10" t="n">
-        <v>599.8086</v>
+        <v>1176.2081</v>
       </c>
       <c r="H10" t="n">
-        <v>5407.2092</v>
+        <v>9838.215700000001</v>
       </c>
       <c r="I10" t="n">
-        <v>923.1723</v>
+        <v>2273.6174</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>385.0585</v>
+        <v>634.5243</v>
       </c>
       <c r="C11" t="n">
-        <v>971.874</v>
+        <v>2413.214</v>
       </c>
       <c r="D11" t="n">
-        <v>2484.1863</v>
+        <v>2984.8482</v>
       </c>
       <c r="E11" t="n">
-        <v>14384.5872</v>
+        <v>26258.2352</v>
       </c>
       <c r="F11" t="n">
-        <v>874.4201</v>
+        <v>1745.4644</v>
       </c>
       <c r="G11" t="n">
-        <v>669.1513</v>
+        <v>1254.2522</v>
       </c>
       <c r="H11" t="n">
-        <v>6134.461</v>
+        <v>10615.9314</v>
       </c>
       <c r="I11" t="n">
-        <v>1004.593</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>412.4483</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1179.505</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2717.4762</v>
-      </c>
-      <c r="E12" t="n">
-        <v>16866.6624</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1026.3552</v>
-      </c>
-      <c r="G12" t="n">
-        <v>792.7899</v>
-      </c>
-      <c r="H12" t="n">
-        <v>7198.4769</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1271.2766</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>431.8115</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1409.1955</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2770.282</v>
-      </c>
-      <c r="E13" t="n">
-        <v>18979.5614</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1151.5667</v>
-      </c>
-      <c r="G13" t="n">
-        <v>913.008</v>
-      </c>
-      <c r="H13" t="n">
-        <v>8032.3075</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1677.9552</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>464.1561</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1673.4495</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2814.6788</v>
-      </c>
-      <c r="E14" t="n">
-        <v>20710.3965</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1306.0214</v>
-      </c>
-      <c r="G14" t="n">
-        <v>992.103</v>
-      </c>
-      <c r="H14" t="n">
-        <v>8725.841899999999</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1815.6599</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>512.0792</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1955.7723</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2937.076</v>
-      </c>
-      <c r="E15" t="n">
-        <v>22674.7287</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1491.5506</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1046.1536</v>
-      </c>
-      <c r="H15" t="n">
-        <v>9355.066199999999</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2095.3146</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>592.2951</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2151.4613</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3007.8934</v>
-      </c>
-      <c r="E16" t="n">
-        <v>24391.8705</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1563.6177</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1176.2081</v>
-      </c>
-      <c r="H16" t="n">
-        <v>9838.215700000001</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2273.6174</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>634.5243</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2413.214</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2984.8482</v>
-      </c>
-      <c r="E17" t="n">
-        <v>26258.2352</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1745.4644</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1254.2522</v>
-      </c>
-      <c r="H17" t="n">
-        <v>10615.9314</v>
-      </c>
-      <c r="I17" t="n">
         <v>2455.2727</v>
       </c>
     </row>
